--- a/database/industries/palayesh/shetran/product/yearly.xlsx
+++ b/database/industries/palayesh/shetran/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1894ECA2-A05C-460D-B558-FEDAF7698A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252AEB29-D152-4BD6-B07E-1D7E65E289A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="38">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>وکیوم باتوم</t>
   </si>
   <si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -590,12 +593,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -605,7 +608,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,7 +620,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -629,7 +632,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +642,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,7 +654,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -663,7 +666,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -673,7 +676,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -695,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -705,7 +708,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -714,22 +717,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1067246</v>
+        <v>1253947</v>
       </c>
       <c r="F10" s="9">
-        <v>1253947</v>
+        <v>1096785</v>
       </c>
       <c r="G10" s="9">
-        <v>1096785</v>
+        <v>969356</v>
       </c>
       <c r="H10" s="9">
-        <v>969356</v>
+        <v>891994</v>
       </c>
       <c r="I10" s="9">
-        <v>891994</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1045502</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -738,22 +741,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>314688</v>
+        <v>316691</v>
       </c>
       <c r="F11" s="11">
-        <v>316691</v>
+        <v>224627</v>
       </c>
       <c r="G11" s="11">
-        <v>224627</v>
+        <v>131636</v>
       </c>
       <c r="H11" s="11">
-        <v>131636</v>
+        <v>80944</v>
       </c>
       <c r="I11" s="11">
-        <v>80944</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54795</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -762,22 +765,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>19906</v>
+        <v>23418</v>
       </c>
       <c r="F12" s="9">
-        <v>23418</v>
+        <v>26279</v>
       </c>
       <c r="G12" s="9">
-        <v>26279</v>
+        <v>24542</v>
       </c>
       <c r="H12" s="9">
-        <v>24542</v>
+        <v>35120</v>
       </c>
       <c r="I12" s="9">
-        <v>35120</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36397</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -786,22 +789,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>573941</v>
+        <v>583316</v>
       </c>
       <c r="F13" s="11">
-        <v>583316</v>
+        <v>523167</v>
       </c>
       <c r="G13" s="11">
-        <v>523167</v>
+        <v>587903</v>
       </c>
       <c r="H13" s="11">
-        <v>587903</v>
+        <v>486604</v>
       </c>
       <c r="I13" s="11">
-        <v>486604</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>487684</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -818,14 +821,14 @@
       <c r="G14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>16</v>
+      <c r="H14" s="9">
+        <v>918</v>
       </c>
       <c r="I14" s="9">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -834,22 +837,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>384707</v>
+        <v>203383</v>
       </c>
       <c r="F15" s="11">
-        <v>203383</v>
+        <v>117367</v>
       </c>
       <c r="G15" s="11">
-        <v>117367</v>
+        <v>158688</v>
       </c>
       <c r="H15" s="11">
-        <v>158688</v>
+        <v>365468</v>
       </c>
       <c r="I15" s="11">
-        <v>365468</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>322878</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -864,14 +867,14 @@
       <c r="G16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>16</v>
+      <c r="H16" s="9">
+        <v>0</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -880,22 +883,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>17531</v>
+        <v>30075</v>
       </c>
       <c r="F17" s="11">
-        <v>30075</v>
+        <v>8743</v>
       </c>
       <c r="G17" s="11">
-        <v>8743</v>
+        <v>12630</v>
       </c>
       <c r="H17" s="11">
-        <v>12630</v>
+        <v>3401</v>
       </c>
       <c r="I17" s="11">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -904,22 +907,22 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>2585305</v>
+        <v>2315587</v>
       </c>
       <c r="F18" s="9">
-        <v>2315587</v>
+        <v>2241611</v>
       </c>
       <c r="G18" s="9">
-        <v>2241611</v>
+        <v>2172558</v>
       </c>
       <c r="H18" s="9">
-        <v>2172558</v>
+        <v>2377732</v>
       </c>
       <c r="I18" s="9">
-        <v>2377732</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2495389</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -928,22 +931,22 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>2319762</v>
+        <v>2432516</v>
       </c>
       <c r="F19" s="11">
-        <v>2432516</v>
+        <v>2391280</v>
       </c>
       <c r="G19" s="11">
-        <v>2391280</v>
+        <v>2398958</v>
       </c>
       <c r="H19" s="11">
-        <v>2398958</v>
+        <v>2216624</v>
       </c>
       <c r="I19" s="11">
-        <v>2216624</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2246128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -952,22 +955,22 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>20461</v>
+        <v>15360</v>
       </c>
       <c r="F20" s="9">
-        <v>15360</v>
+        <v>25224</v>
       </c>
       <c r="G20" s="9">
-        <v>25224</v>
+        <v>21526</v>
       </c>
       <c r="H20" s="9">
-        <v>21526</v>
+        <v>12301</v>
       </c>
       <c r="I20" s="9">
-        <v>12301</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15088</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -976,22 +979,22 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>989397</v>
+        <v>875461</v>
       </c>
       <c r="F21" s="11">
-        <v>875461</v>
+        <v>722602</v>
       </c>
       <c r="G21" s="11">
-        <v>722602</v>
+        <v>486837</v>
       </c>
       <c r="H21" s="11">
-        <v>486837</v>
+        <v>758892</v>
       </c>
       <c r="I21" s="11">
-        <v>758892</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>614581</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1000,22 +1003,22 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>816651</v>
+        <v>848555</v>
       </c>
       <c r="F22" s="9">
-        <v>848555</v>
+        <v>793329</v>
       </c>
       <c r="G22" s="9">
-        <v>793329</v>
+        <v>832539</v>
       </c>
       <c r="H22" s="9">
-        <v>832539</v>
+        <v>822985</v>
       </c>
       <c r="I22" s="9">
-        <v>822985</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>909212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1024,44 +1027,44 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>5039635</v>
+        <v>5119362</v>
       </c>
       <c r="F23" s="11">
-        <v>5119362</v>
+        <v>5152431</v>
       </c>
       <c r="G23" s="11">
-        <v>5152431</v>
+        <v>5062844</v>
       </c>
       <c r="H23" s="11">
-        <v>5062844</v>
+        <v>4755914</v>
       </c>
       <c r="I23" s="11">
-        <v>4755914</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5233558</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>14149230</v>
+        <v>14017671</v>
       </c>
       <c r="F24" s="13">
-        <v>14017671</v>
+        <v>13323445</v>
       </c>
       <c r="G24" s="13">
-        <v>13323445</v>
+        <v>12860017</v>
       </c>
       <c r="H24" s="13">
-        <v>12860017</v>
+        <v>12808897</v>
       </c>
       <c r="I24" s="13">
-        <v>12808897</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13462029</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1071,7 +1074,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1081,7 +1084,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1091,7 +1094,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1123,7 +1126,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -1132,22 +1135,22 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>1060894</v>
+        <v>1261433</v>
       </c>
       <c r="F30" s="9">
-        <v>1261433</v>
+        <v>1091759</v>
       </c>
       <c r="G30" s="9">
-        <v>1091759</v>
+        <v>971262</v>
       </c>
       <c r="H30" s="9">
-        <v>971262</v>
+        <v>892534</v>
       </c>
       <c r="I30" s="9">
-        <v>892534</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1046201</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>12</v>
       </c>
@@ -1156,22 +1159,22 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>258110</v>
+        <v>276693</v>
       </c>
       <c r="F31" s="11">
-        <v>276693</v>
+        <v>249706</v>
       </c>
       <c r="G31" s="11">
-        <v>249706</v>
+        <v>131054</v>
       </c>
       <c r="H31" s="11">
-        <v>131054</v>
+        <v>74985</v>
       </c>
       <c r="I31" s="11">
-        <v>74985</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62785</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
@@ -1180,22 +1183,22 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>20670</v>
+        <v>23432</v>
       </c>
       <c r="F32" s="9">
-        <v>23432</v>
+        <v>25131</v>
       </c>
       <c r="G32" s="9">
-        <v>25131</v>
+        <v>24171</v>
       </c>
       <c r="H32" s="9">
-        <v>24171</v>
+        <v>32727</v>
       </c>
       <c r="I32" s="9">
-        <v>32727</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38052</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>28</v>
       </c>
@@ -1203,23 +1206,23 @@
         <v>29</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="11">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -1228,22 +1231,22 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>575970</v>
+        <v>582098</v>
       </c>
       <c r="F34" s="9">
-        <v>582098</v>
+        <v>523501</v>
       </c>
       <c r="G34" s="9">
-        <v>523501</v>
+        <v>576797</v>
       </c>
       <c r="H34" s="9">
-        <v>576797</v>
+        <v>484504</v>
       </c>
       <c r="I34" s="9">
-        <v>484504</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>493287</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
@@ -1260,14 +1263,14 @@
       <c r="G35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>16</v>
+      <c r="H35" s="11">
+        <v>918</v>
       </c>
       <c r="I35" s="11">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>17</v>
       </c>
@@ -1276,29 +1279,29 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>384707</v>
+        <v>203383</v>
       </c>
       <c r="F36" s="9">
-        <v>203383</v>
+        <v>117367</v>
       </c>
       <c r="G36" s="9">
-        <v>117367</v>
+        <v>158688</v>
       </c>
       <c r="H36" s="9">
-        <v>158688</v>
+        <v>365468</v>
       </c>
       <c r="I36" s="9">
-        <v>365468</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>322878</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>16</v>
+      <c r="E37" s="11">
+        <v>0</v>
       </c>
       <c r="F37" s="11">
         <v>0</v>
@@ -1313,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
@@ -1322,22 +1325,22 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>17531</v>
+        <v>30075</v>
       </c>
       <c r="F38" s="9">
-        <v>30075</v>
+        <v>8743</v>
       </c>
       <c r="G38" s="9">
-        <v>8743</v>
+        <v>12630</v>
       </c>
       <c r="H38" s="9">
-        <v>12630</v>
+        <v>3401</v>
       </c>
       <c r="I38" s="9">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>20</v>
       </c>
@@ -1346,22 +1349,22 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>2573406</v>
+        <v>2133638</v>
       </c>
       <c r="F39" s="11">
-        <v>2133638</v>
+        <v>2255208</v>
       </c>
       <c r="G39" s="11">
-        <v>2255208</v>
+        <v>2312884</v>
       </c>
       <c r="H39" s="11">
-        <v>2312884</v>
+        <v>2419245</v>
       </c>
       <c r="I39" s="11">
-        <v>2419245</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2491242</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -1370,22 +1373,22 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>2326562</v>
+        <v>2450906</v>
       </c>
       <c r="F40" s="9">
-        <v>2450906</v>
+        <v>2317963</v>
       </c>
       <c r="G40" s="9">
-        <v>2317963</v>
+        <v>2591462</v>
       </c>
       <c r="H40" s="9">
-        <v>2591462</v>
+        <v>2197084</v>
       </c>
       <c r="I40" s="9">
-        <v>2197084</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2299585</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>22</v>
       </c>
@@ -1394,22 +1397,22 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>19110</v>
+        <v>17700</v>
       </c>
       <c r="F41" s="11">
-        <v>17700</v>
+        <v>20276</v>
       </c>
       <c r="G41" s="11">
-        <v>20276</v>
+        <v>29400</v>
       </c>
       <c r="H41" s="11">
-        <v>29400</v>
+        <v>13178</v>
       </c>
       <c r="I41" s="11">
-        <v>13178</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12978</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>23</v>
       </c>
@@ -1418,22 +1421,22 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>986941</v>
+        <v>881713</v>
       </c>
       <c r="F42" s="9">
-        <v>881713</v>
+        <v>684483</v>
       </c>
       <c r="G42" s="9">
-        <v>684483</v>
+        <v>520245</v>
       </c>
       <c r="H42" s="9">
-        <v>520245</v>
+        <v>741703</v>
       </c>
       <c r="I42" s="9">
-        <v>741703</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>631361</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>24</v>
       </c>
@@ -1442,22 +1445,22 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>816828</v>
+        <v>848777</v>
       </c>
       <c r="F43" s="11">
-        <v>848777</v>
+        <v>793267</v>
       </c>
       <c r="G43" s="11">
-        <v>793267</v>
+        <v>832532</v>
       </c>
       <c r="H43" s="11">
-        <v>832532</v>
+        <v>823381</v>
       </c>
       <c r="I43" s="11">
-        <v>823381</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>909597</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>25</v>
       </c>
@@ -1466,44 +1469,44 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>5030314</v>
+        <v>5037555</v>
       </c>
       <c r="F44" s="9">
-        <v>5037555</v>
+        <v>5255695</v>
       </c>
       <c r="G44" s="9">
-        <v>5255695</v>
+        <v>5100620</v>
       </c>
       <c r="H44" s="9">
-        <v>5100620</v>
+        <v>4702523</v>
       </c>
       <c r="I44" s="9">
-        <v>4702523</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5261503</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>14071043</v>
+        <v>13747403</v>
       </c>
       <c r="F45" s="15">
-        <v>13747403</v>
+        <v>13343099</v>
       </c>
       <c r="G45" s="15">
-        <v>13343099</v>
+        <v>13261745</v>
       </c>
       <c r="H45" s="15">
-        <v>13261745</v>
+        <v>12751651</v>
       </c>
       <c r="I45" s="15">
-        <v>12751651</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13570286</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1513,7 +1516,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1523,7 +1526,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1533,7 +1536,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>30</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1565,7 +1568,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>10</v>
       </c>
@@ -1574,22 +1577,22 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>8500748</v>
+        <v>24109562</v>
       </c>
       <c r="F51" s="9">
-        <v>24109562</v>
+        <v>27929151</v>
       </c>
       <c r="G51" s="9">
-        <v>27929151</v>
+        <v>36601675</v>
       </c>
       <c r="H51" s="9">
-        <v>36601675</v>
+        <v>64947129</v>
       </c>
       <c r="I51" s="9">
-        <v>64947129</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>92760770</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>12</v>
       </c>
@@ -1598,22 +1601,22 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>4051030</v>
+        <v>9927889</v>
       </c>
       <c r="F52" s="11">
-        <v>9927889</v>
+        <v>12379747</v>
       </c>
       <c r="G52" s="11">
-        <v>12379747</v>
+        <v>7474661</v>
       </c>
       <c r="H52" s="11">
-        <v>7474661</v>
+        <v>9929174</v>
       </c>
       <c r="I52" s="11">
-        <v>9929174</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12668341</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
@@ -1622,22 +1625,22 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>113948</v>
+        <v>304806</v>
       </c>
       <c r="F53" s="9">
-        <v>304806</v>
+        <v>206169</v>
       </c>
       <c r="G53" s="9">
-        <v>206169</v>
+        <v>547430</v>
       </c>
       <c r="H53" s="9">
-        <v>547430</v>
+        <v>1551021</v>
       </c>
       <c r="I53" s="9">
-        <v>1551021</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2186231</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>28</v>
       </c>
@@ -1645,23 +1648,23 @@
         <v>31</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>14</v>
       </c>
@@ -1670,22 +1673,22 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>5172781</v>
+        <v>9789108</v>
       </c>
       <c r="F55" s="9">
-        <v>9789108</v>
+        <v>12859284</v>
       </c>
       <c r="G55" s="9">
-        <v>12859284</v>
+        <v>19688390</v>
       </c>
       <c r="H55" s="9">
-        <v>19688390</v>
+        <v>40788758</v>
       </c>
       <c r="I55" s="9">
-        <v>40788758</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45747409</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>15</v>
       </c>
@@ -1702,14 +1705,14 @@
       <c r="G56" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>16</v>
+      <c r="H56" s="11">
+        <v>104680</v>
       </c>
       <c r="I56" s="11">
-        <v>104680</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>17</v>
       </c>
@@ -1718,22 +1721,22 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>4465982</v>
+        <v>4538440</v>
       </c>
       <c r="F57" s="9">
-        <v>4538440</v>
+        <v>4256087</v>
       </c>
       <c r="G57" s="9">
-        <v>4256087</v>
+        <v>7462885</v>
       </c>
       <c r="H57" s="9">
-        <v>7462885</v>
+        <v>33414601</v>
       </c>
       <c r="I57" s="9">
-        <v>33414601</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38815193</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>18</v>
       </c>
@@ -1741,8 +1744,8 @@
         <v>31</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>16</v>
+      <c r="E58" s="11">
+        <v>0</v>
       </c>
       <c r="F58" s="11">
         <v>0</v>
@@ -1757,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>19</v>
       </c>
@@ -1766,22 +1769,22 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>254684</v>
+        <v>902300</v>
       </c>
       <c r="F59" s="9">
-        <v>902300</v>
+        <v>437030</v>
       </c>
       <c r="G59" s="9">
-        <v>437030</v>
+        <v>691887</v>
       </c>
       <c r="H59" s="9">
-        <v>691887</v>
+        <v>325514</v>
       </c>
       <c r="I59" s="9">
-        <v>325514</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>155302</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>20</v>
       </c>
@@ -1790,22 +1793,22 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>28311480</v>
+        <v>50208595</v>
       </c>
       <c r="F60" s="11">
-        <v>50208595</v>
+        <v>74034210</v>
       </c>
       <c r="G60" s="11">
-        <v>74034210</v>
+        <v>110485752</v>
       </c>
       <c r="H60" s="11">
-        <v>110485752</v>
+        <v>235437553</v>
       </c>
       <c r="I60" s="11">
-        <v>235437553</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>270761722</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>21</v>
       </c>
@@ -1814,22 +1817,22 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>31867263</v>
+        <v>63295300</v>
       </c>
       <c r="F61" s="9">
-        <v>63295300</v>
+        <v>101289086</v>
       </c>
       <c r="G61" s="9">
-        <v>101289086</v>
+        <v>140596359</v>
       </c>
       <c r="H61" s="9">
-        <v>140596359</v>
+        <v>269042099</v>
       </c>
       <c r="I61" s="9">
-        <v>269042099</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>383032942</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>22</v>
       </c>
@@ -1838,22 +1841,22 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>266773</v>
+        <v>551445</v>
       </c>
       <c r="F62" s="11">
-        <v>551445</v>
+        <v>1027521</v>
       </c>
       <c r="G62" s="11">
-        <v>1027521</v>
+        <v>1714104</v>
       </c>
       <c r="H62" s="11">
-        <v>1714104</v>
+        <v>1789157</v>
       </c>
       <c r="I62" s="11">
-        <v>1789157</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2622539</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>23</v>
       </c>
@@ -1862,22 +1865,22 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>14235563</v>
+        <v>26434002</v>
       </c>
       <c r="F63" s="9">
-        <v>26434002</v>
+        <v>33980367</v>
       </c>
       <c r="G63" s="9">
-        <v>33980367</v>
+        <v>29394776</v>
       </c>
       <c r="H63" s="9">
-        <v>29394776</v>
+        <v>84869988</v>
       </c>
       <c r="I63" s="9">
-        <v>84869988</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>133455317</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>24</v>
       </c>
@@ -1886,22 +1889,22 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>9305947</v>
+        <v>22520854</v>
       </c>
       <c r="F64" s="11">
-        <v>22520854</v>
+        <v>29860241</v>
       </c>
       <c r="G64" s="11">
-        <v>29860241</v>
+        <v>45453175</v>
       </c>
       <c r="H64" s="11">
-        <v>45453175</v>
+        <v>83346521</v>
       </c>
       <c r="I64" s="11">
-        <v>83346521</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116039399</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>25</v>
       </c>
@@ -1910,44 +1913,44 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>73173833</v>
+        <v>155411897</v>
       </c>
       <c r="F65" s="9">
-        <v>155411897</v>
+        <v>263469277</v>
       </c>
       <c r="G65" s="9">
-        <v>263469277</v>
+        <v>322913229</v>
       </c>
       <c r="H65" s="9">
-        <v>322913229</v>
+        <v>586860714</v>
       </c>
       <c r="I65" s="9">
-        <v>586860714</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1102870705</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15">
-        <v>179720032</v>
+        <v>367994198</v>
       </c>
       <c r="F66" s="15">
-        <v>367994198</v>
+        <v>561728170</v>
       </c>
       <c r="G66" s="15">
-        <v>561728170</v>
+        <v>723024323</v>
       </c>
       <c r="H66" s="15">
-        <v>723024323</v>
+        <v>1412406909</v>
       </c>
       <c r="I66" s="15">
-        <v>1412406909</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2201115870</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1957,7 +1960,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1967,7 +1970,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1977,7 +1980,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>32</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2009,7 +2012,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>10</v>
       </c>
@@ -2018,22 +2021,22 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <v>8012816</v>
+        <v>19112836</v>
       </c>
       <c r="F72" s="9">
-        <v>19112836</v>
+        <v>25581791</v>
       </c>
       <c r="G72" s="9">
-        <v>25581791</v>
+        <v>37684657</v>
       </c>
       <c r="H72" s="9">
-        <v>37684657</v>
+        <v>72767120</v>
       </c>
       <c r="I72" s="9">
-        <v>72767120</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>88664387</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>12</v>
       </c>
@@ -2042,22 +2045,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>15694975</v>
+        <v>35880521</v>
       </c>
       <c r="F73" s="11">
-        <v>35880521</v>
+        <v>49577291</v>
       </c>
       <c r="G73" s="11">
-        <v>49577291</v>
+        <v>57034970</v>
       </c>
       <c r="H73" s="11">
-        <v>57034970</v>
+        <v>132415470</v>
       </c>
       <c r="I73" s="11">
-        <v>132415470</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>201773369</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>13</v>
       </c>
@@ -2066,22 +2069,22 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <v>5512724</v>
+        <v>13008109</v>
       </c>
       <c r="F74" s="9">
-        <v>13008109</v>
+        <v>8203772</v>
       </c>
       <c r="G74" s="9">
-        <v>8203772</v>
+        <v>22648215</v>
       </c>
       <c r="H74" s="9">
-        <v>22648215</v>
+        <v>47392703</v>
       </c>
       <c r="I74" s="9">
-        <v>47392703</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57453774</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>28</v>
       </c>
@@ -2089,23 +2092,23 @@
         <v>34</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="11">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F75" s="11">
-        <v>0</v>
-      </c>
-      <c r="G75" s="11">
-        <v>0</v>
-      </c>
-      <c r="H75" s="11">
-        <v>0</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
@@ -2114,22 +2117,22 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>8980990</v>
+        <v>16816941</v>
       </c>
       <c r="F76" s="9">
-        <v>16816941</v>
+        <v>24564010</v>
       </c>
       <c r="G76" s="9">
-        <v>24564010</v>
+        <v>34134002</v>
       </c>
       <c r="H76" s="9">
-        <v>34134002</v>
+        <v>84186628</v>
       </c>
       <c r="I76" s="9">
-        <v>84186628</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>92739944</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>15</v>
       </c>
@@ -2146,14 +2149,14 @@
       <c r="G77" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>16</v>
+      <c r="H77" s="11">
+        <v>114030501</v>
       </c>
       <c r="I77" s="11">
-        <v>114030501</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>17</v>
       </c>
@@ -2162,31 +2165,31 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>11608788</v>
+        <v>22314746</v>
       </c>
       <c r="F78" s="9">
-        <v>22314746</v>
+        <v>36263064</v>
       </c>
       <c r="G78" s="9">
-        <v>36263064</v>
+        <v>47028666</v>
       </c>
       <c r="H78" s="9">
-        <v>47028666</v>
+        <v>91429622</v>
       </c>
       <c r="I78" s="9">
-        <v>91429622</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120216283</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>16</v>
+      <c r="E79" s="11">
+        <v>0</v>
       </c>
       <c r="F79" s="11">
         <v>0</v>
@@ -2201,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>19</v>
       </c>
@@ -2210,22 +2213,22 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>14527637</v>
+        <v>30001663</v>
       </c>
       <c r="F80" s="9">
-        <v>30001663</v>
+        <v>49986275</v>
       </c>
       <c r="G80" s="9">
-        <v>49986275</v>
+        <v>54781235</v>
       </c>
       <c r="H80" s="9">
-        <v>54781235</v>
+        <v>95711261</v>
       </c>
       <c r="I80" s="9">
-        <v>95711261</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>190088127</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>20</v>
       </c>
@@ -2234,22 +2237,22 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>11001560</v>
+        <v>23531918</v>
       </c>
       <c r="F81" s="11">
-        <v>23531918</v>
+        <v>32828107</v>
       </c>
       <c r="G81" s="11">
-        <v>32828107</v>
+        <v>47769690</v>
       </c>
       <c r="H81" s="11">
-        <v>47769690</v>
+        <v>97318607</v>
       </c>
       <c r="I81" s="11">
-        <v>97318607</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>108685436</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>21</v>
       </c>
@@ -2258,22 +2261,22 @@
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
-        <v>13697148</v>
+        <v>25825266</v>
       </c>
       <c r="F82" s="9">
-        <v>25825266</v>
+        <v>43697456</v>
       </c>
       <c r="G82" s="9">
-        <v>43697456</v>
+        <v>54253683</v>
       </c>
       <c r="H82" s="9">
-        <v>54253683</v>
+        <v>122454171</v>
       </c>
       <c r="I82" s="9">
-        <v>122454171</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>166566116</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>22</v>
       </c>
@@ -2282,22 +2285,22 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>13959864</v>
+        <v>31155085</v>
       </c>
       <c r="F83" s="11">
-        <v>31155085</v>
+        <v>50676711</v>
       </c>
       <c r="G83" s="11">
-        <v>50676711</v>
+        <v>58302857</v>
       </c>
       <c r="H83" s="11">
-        <v>58302857</v>
+        <v>135768478</v>
       </c>
       <c r="I83" s="11">
-        <v>135768478</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>202075744</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>23</v>
       </c>
@@ -2306,22 +2309,22 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
-        <v>14423925</v>
+        <v>29980279</v>
       </c>
       <c r="F84" s="9">
-        <v>29980279</v>
+        <v>49643844</v>
       </c>
       <c r="G84" s="9">
-        <v>49643844</v>
+        <v>56501794</v>
       </c>
       <c r="H84" s="9">
-        <v>56501794</v>
+        <v>114425839</v>
       </c>
       <c r="I84" s="9">
-        <v>114425839</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>211377195</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>24</v>
       </c>
@@ -2330,22 +2333,22 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>11392786</v>
+        <v>26533299</v>
       </c>
       <c r="F85" s="11">
-        <v>26533299</v>
+        <v>37642107</v>
       </c>
       <c r="G85" s="11">
-        <v>37642107</v>
+        <v>54596310</v>
       </c>
       <c r="H85" s="11">
-        <v>54596310</v>
+        <v>101224732</v>
       </c>
       <c r="I85" s="11">
-        <v>101224732</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>127572319</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>25</v>
       </c>
@@ -2354,22 +2357,22 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
-        <v>14546574</v>
+        <v>30850660</v>
       </c>
       <c r="F86" s="9">
-        <v>30850660</v>
+        <v>50130245</v>
       </c>
       <c r="G86" s="9">
-        <v>50130245</v>
+        <v>63308623</v>
       </c>
       <c r="H86" s="9">
-        <v>63308623</v>
+        <v>124796990</v>
       </c>
       <c r="I86" s="9">
-        <v>124796990</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>209611342</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2379,7 +2382,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2389,7 +2392,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2399,9 +2402,9 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2421,7 +2424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2431,7 +2434,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>10</v>
       </c>
@@ -2439,23 +2442,23 @@
         <v>31</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>16</v>
+      <c r="E92" s="9">
+        <v>-20585504</v>
       </c>
       <c r="F92" s="9">
-        <v>-20585504</v>
+        <v>-24940411</v>
       </c>
       <c r="G92" s="9">
-        <v>-24940411</v>
+        <v>-33031947</v>
       </c>
       <c r="H92" s="9">
-        <v>-33031947</v>
+        <v>-55935794</v>
       </c>
       <c r="I92" s="9">
-        <v>-55935794</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-75520584</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>12</v>
       </c>
@@ -2463,23 +2466,23 @@
         <v>31</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>16</v>
+      <c r="E93" s="11">
+        <v>-6975992</v>
       </c>
       <c r="F93" s="11">
-        <v>-6975992</v>
+        <v>-10638841</v>
       </c>
       <c r="G93" s="11">
-        <v>-10638841</v>
+        <v>-6272077</v>
       </c>
       <c r="H93" s="11">
-        <v>-6272077</v>
+        <v>-8169453</v>
       </c>
       <c r="I93" s="11">
-        <v>-8169453</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-10120555</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>13</v>
       </c>
@@ -2487,23 +2490,23 @@
         <v>31</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>16</v>
+      <c r="E94" s="9">
+        <v>-291568</v>
       </c>
       <c r="F94" s="9">
-        <v>-291568</v>
+        <v>-203550</v>
       </c>
       <c r="G94" s="9">
-        <v>-203550</v>
+        <v>-506639</v>
       </c>
       <c r="H94" s="9">
-        <v>-506639</v>
+        <v>-1460408</v>
       </c>
       <c r="I94" s="9">
-        <v>-1460408</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1898665</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>28</v>
       </c>
@@ -2511,23 +2514,23 @@
         <v>31</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F95" s="11">
-        <v>0</v>
-      </c>
-      <c r="G95" s="11">
-        <v>0</v>
-      </c>
-      <c r="H95" s="11">
-        <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>14</v>
       </c>
@@ -2535,23 +2538,23 @@
         <v>31</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
-        <v>16</v>
+      <c r="E96" s="9">
+        <v>-8859783</v>
       </c>
       <c r="F96" s="9">
-        <v>-8859783</v>
+        <v>-12135028</v>
       </c>
       <c r="G96" s="9">
-        <v>-12135028</v>
+        <v>-17830992</v>
       </c>
       <c r="H96" s="9">
-        <v>-17830992</v>
+        <v>-36979307</v>
       </c>
       <c r="I96" s="9">
-        <v>-36979307</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-41940776</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>15</v>
       </c>
@@ -2568,14 +2571,14 @@
       <c r="G97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H97" s="11" t="s">
-        <v>16</v>
+      <c r="H97" s="11">
+        <v>-92304</v>
       </c>
       <c r="I97" s="11">
-        <v>-92304</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>17</v>
       </c>
@@ -2583,23 +2586,23 @@
         <v>31</v>
       </c>
       <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
-        <v>16</v>
+      <c r="E98" s="9">
+        <v>-3973769</v>
       </c>
       <c r="F98" s="9">
-        <v>-3973769</v>
+        <v>-3861904</v>
       </c>
       <c r="G98" s="9">
-        <v>-3861904</v>
+        <v>-6103602</v>
       </c>
       <c r="H98" s="9">
-        <v>-6103602</v>
+        <v>-31113715</v>
       </c>
       <c r="I98" s="9">
-        <v>-31113715</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-32368520</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>18</v>
       </c>
@@ -2607,8 +2610,8 @@
         <v>31</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
-        <v>16</v>
+      <c r="E99" s="11">
+        <v>0</v>
       </c>
       <c r="F99" s="11">
         <v>0</v>
@@ -2623,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>19</v>
       </c>
@@ -2631,23 +2634,23 @@
         <v>31</v>
       </c>
       <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>16</v>
+      <c r="E100" s="9">
+        <v>-815185</v>
       </c>
       <c r="F100" s="9">
-        <v>-815185</v>
+        <v>-413791</v>
       </c>
       <c r="G100" s="9">
-        <v>-413791</v>
+        <v>-634196</v>
       </c>
       <c r="H100" s="9">
-        <v>-634196</v>
+        <v>-322854</v>
       </c>
       <c r="I100" s="9">
-        <v>-322854</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-145217</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>20</v>
       </c>
@@ -2655,23 +2658,23 @@
         <v>31</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
-        <v>16</v>
+      <c r="E101" s="11">
+        <v>-43683855</v>
       </c>
       <c r="F101" s="11">
-        <v>-43683855</v>
+        <v>-69082264</v>
       </c>
       <c r="G101" s="11">
-        <v>-69082264</v>
+        <v>-90029483</v>
       </c>
       <c r="H101" s="11">
-        <v>-90029483</v>
+        <v>-209000920</v>
       </c>
       <c r="I101" s="11">
-        <v>-209000920</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-246371539</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>21</v>
       </c>
@@ -2679,23 +2682,23 @@
         <v>31</v>
       </c>
       <c r="D102" s="9"/>
-      <c r="E102" s="9" t="s">
-        <v>16</v>
+      <c r="E102" s="9">
+        <v>-55401498</v>
       </c>
       <c r="F102" s="9">
-        <v>-55401498</v>
+        <v>-90607704</v>
       </c>
       <c r="G102" s="9">
-        <v>-90607704</v>
+        <v>-118897877</v>
       </c>
       <c r="H102" s="9">
-        <v>-118897877</v>
+        <v>-239554802</v>
       </c>
       <c r="I102" s="9">
-        <v>-239554802</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-330476426</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>22</v>
       </c>
@@ -2703,23 +2706,23 @@
         <v>31</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
-        <v>16</v>
+      <c r="E103" s="11">
+        <v>-327383</v>
       </c>
       <c r="F103" s="11">
-        <v>-327383</v>
+        <v>-770314</v>
       </c>
       <c r="G103" s="11">
-        <v>-770314</v>
+        <v>-1348622</v>
       </c>
       <c r="H103" s="11">
-        <v>-1348622</v>
+        <v>-1183204</v>
       </c>
       <c r="I103" s="11">
-        <v>-1183204</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2020957</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>23</v>
       </c>
@@ -2727,23 +2730,23 @@
         <v>31</v>
       </c>
       <c r="D104" s="9"/>
-      <c r="E104" s="9" t="s">
-        <v>16</v>
+      <c r="E104" s="9">
+        <v>-22911816</v>
       </c>
       <c r="F104" s="9">
-        <v>-22911816</v>
+        <v>-30403628</v>
       </c>
       <c r="G104" s="9">
-        <v>-30403628</v>
+        <v>-24606352</v>
       </c>
       <c r="H104" s="9">
-        <v>-24606352</v>
+        <v>-79140478</v>
       </c>
       <c r="I104" s="9">
-        <v>-79140478</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-108664258</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>24</v>
       </c>
@@ -2751,23 +2754,23 @@
         <v>31</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>16</v>
+      <c r="E105" s="11">
+        <v>-18941815</v>
       </c>
       <c r="F105" s="11">
-        <v>-18941815</v>
+        <v>-27841167</v>
       </c>
       <c r="G105" s="11">
-        <v>-27841167</v>
+        <v>-42986837</v>
       </c>
       <c r="H105" s="11">
-        <v>-42986837</v>
+        <v>-77986241</v>
       </c>
       <c r="I105" s="11">
-        <v>-77986241</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-103772588</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>25</v>
       </c>
@@ -2775,45 +2778,45 @@
         <v>31</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>16</v>
+      <c r="E106" s="9">
+        <v>-147498142</v>
       </c>
       <c r="F106" s="9">
-        <v>-147498142</v>
+        <v>-251407631</v>
       </c>
       <c r="G106" s="9">
-        <v>-251407631</v>
+        <v>-294477936</v>
       </c>
       <c r="H106" s="9">
-        <v>-294477936</v>
+        <v>-535296847</v>
       </c>
       <c r="I106" s="9">
-        <v>-535296847</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-985970515</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>0</v>
+        <v>-330266310</v>
       </c>
       <c r="F107" s="15">
-        <v>-330266310</v>
+        <v>-522306233</v>
       </c>
       <c r="G107" s="15">
-        <v>-522306233</v>
+        <v>-636726560</v>
       </c>
       <c r="H107" s="15">
-        <v>-636726560</v>
+        <v>-1276236327</v>
       </c>
       <c r="I107" s="15">
-        <v>-1276236327</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1939270600</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2823,7 +2826,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2833,7 +2836,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2843,9 +2846,9 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2865,7 +2868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2875,7 +2878,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>10</v>
       </c>
@@ -2883,23 +2886,23 @@
         <v>31</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>16</v>
+      <c r="E113" s="9">
+        <v>3524058</v>
       </c>
       <c r="F113" s="9">
-        <v>3524058</v>
+        <v>2988740</v>
       </c>
       <c r="G113" s="9">
-        <v>2988740</v>
+        <v>3569728</v>
       </c>
       <c r="H113" s="9">
-        <v>3569728</v>
+        <v>9011335</v>
       </c>
       <c r="I113" s="9">
-        <v>9011335</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17240186</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>12</v>
       </c>
@@ -2907,23 +2910,23 @@
         <v>31</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>16</v>
+      <c r="E114" s="11">
+        <v>2951897</v>
       </c>
       <c r="F114" s="11">
-        <v>2951897</v>
+        <v>1740906</v>
       </c>
       <c r="G114" s="11">
-        <v>1740906</v>
+        <v>1202584</v>
       </c>
       <c r="H114" s="11">
-        <v>1202584</v>
+        <v>1759721</v>
       </c>
       <c r="I114" s="11">
-        <v>1759721</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2547786</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>13</v>
       </c>
@@ -2931,23 +2934,23 @@
         <v>31</v>
       </c>
       <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
-        <v>16</v>
+      <c r="E115" s="9">
+        <v>13238</v>
       </c>
       <c r="F115" s="9">
-        <v>13238</v>
+        <v>2619</v>
       </c>
       <c r="G115" s="9">
-        <v>2619</v>
+        <v>40791</v>
       </c>
       <c r="H115" s="9">
-        <v>40791</v>
+        <v>90613</v>
       </c>
       <c r="I115" s="9">
-        <v>90613</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>287566</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>28</v>
       </c>
@@ -2958,20 +2961,20 @@
       <c r="E116" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F116" s="11">
+        <v>0</v>
+      </c>
+      <c r="G116" s="11">
+        <v>0</v>
+      </c>
+      <c r="H116" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="G116" s="11">
-        <v>0</v>
-      </c>
-      <c r="H116" s="11">
-        <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>14</v>
       </c>
@@ -2979,23 +2982,23 @@
         <v>31</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>16</v>
+      <c r="E117" s="9">
+        <v>929325</v>
       </c>
       <c r="F117" s="9">
-        <v>929325</v>
+        <v>724256</v>
       </c>
       <c r="G117" s="9">
-        <v>724256</v>
+        <v>1857398</v>
       </c>
       <c r="H117" s="9">
-        <v>1857398</v>
+        <v>3809451</v>
       </c>
       <c r="I117" s="9">
-        <v>3809451</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3806633</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>15</v>
       </c>
@@ -3012,14 +3015,14 @@
       <c r="G118" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H118" s="11" t="s">
-        <v>16</v>
+      <c r="H118" s="11">
+        <v>12376</v>
       </c>
       <c r="I118" s="11">
-        <v>12376</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>17</v>
       </c>
@@ -3027,23 +3030,23 @@
         <v>31</v>
       </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>16</v>
+      <c r="E119" s="9">
+        <v>564671</v>
       </c>
       <c r="F119" s="9">
-        <v>564671</v>
+        <v>394183</v>
       </c>
       <c r="G119" s="9">
-        <v>394183</v>
+        <v>1359283</v>
       </c>
       <c r="H119" s="9">
-        <v>1359283</v>
+        <v>2300886</v>
       </c>
       <c r="I119" s="9">
-        <v>2300886</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6446673</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>18</v>
       </c>
@@ -3054,8 +3057,8 @@
       <c r="E120" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>16</v>
+      <c r="F120" s="11">
+        <v>0</v>
       </c>
       <c r="G120" s="11">
         <v>0</v>
@@ -3067,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>19</v>
       </c>
@@ -3075,23 +3078,23 @@
         <v>31</v>
       </c>
       <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
-        <v>16</v>
+      <c r="E121" s="9">
+        <v>87115</v>
       </c>
       <c r="F121" s="9">
-        <v>87115</v>
+        <v>23239</v>
       </c>
       <c r="G121" s="9">
-        <v>23239</v>
+        <v>57691</v>
       </c>
       <c r="H121" s="9">
-        <v>57691</v>
+        <v>2660</v>
       </c>
       <c r="I121" s="9">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10085</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>20</v>
       </c>
@@ -3099,23 +3102,23 @@
         <v>31</v>
       </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>16</v>
+      <c r="E122" s="11">
+        <v>6524740</v>
       </c>
       <c r="F122" s="11">
-        <v>6524740</v>
+        <v>4951946</v>
       </c>
       <c r="G122" s="11">
-        <v>4951946</v>
+        <v>20456269</v>
       </c>
       <c r="H122" s="11">
-        <v>20456269</v>
+        <v>26436633</v>
       </c>
       <c r="I122" s="11">
-        <v>26436633</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24390183</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>21</v>
       </c>
@@ -3123,23 +3126,23 @@
         <v>31</v>
       </c>
       <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
-        <v>16</v>
+      <c r="E123" s="9">
+        <v>7893802</v>
       </c>
       <c r="F123" s="9">
-        <v>7893802</v>
+        <v>10681382</v>
       </c>
       <c r="G123" s="9">
-        <v>10681382</v>
+        <v>21698482</v>
       </c>
       <c r="H123" s="9">
-        <v>21698482</v>
+        <v>29487297</v>
       </c>
       <c r="I123" s="9">
-        <v>29487297</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52556516</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>22</v>
       </c>
@@ -3147,23 +3150,23 @@
         <v>31</v>
       </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="11" t="s">
-        <v>16</v>
+      <c r="E124" s="11">
+        <v>224062</v>
       </c>
       <c r="F124" s="11">
-        <v>224062</v>
+        <v>257207</v>
       </c>
       <c r="G124" s="11">
-        <v>257207</v>
+        <v>365482</v>
       </c>
       <c r="H124" s="11">
-        <v>365482</v>
+        <v>605953</v>
       </c>
       <c r="I124" s="11">
-        <v>605953</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>601582</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>23</v>
       </c>
@@ -3171,23 +3174,23 @@
         <v>31</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>16</v>
+      <c r="E125" s="9">
+        <v>3522186</v>
       </c>
       <c r="F125" s="9">
-        <v>3522186</v>
+        <v>3576739</v>
       </c>
       <c r="G125" s="9">
-        <v>3576739</v>
+        <v>4788424</v>
       </c>
       <c r="H125" s="9">
-        <v>4788424</v>
+        <v>5729510</v>
       </c>
       <c r="I125" s="9">
-        <v>5729510</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24791059</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>24</v>
       </c>
@@ -3195,23 +3198,23 @@
         <v>31</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>16</v>
+      <c r="E126" s="11">
+        <v>3579039</v>
       </c>
       <c r="F126" s="11">
-        <v>3579039</v>
+        <v>2019074</v>
       </c>
       <c r="G126" s="11">
-        <v>2019074</v>
+        <v>2466338</v>
       </c>
       <c r="H126" s="11">
-        <v>2466338</v>
+        <v>5360280</v>
       </c>
       <c r="I126" s="11">
-        <v>5360280</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12266811</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>25</v>
       </c>
@@ -3219,42 +3222,42 @@
         <v>31</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
-        <v>16</v>
+      <c r="E127" s="9">
+        <v>7913755</v>
       </c>
       <c r="F127" s="9">
-        <v>7913755</v>
+        <v>12061646</v>
       </c>
       <c r="G127" s="9">
-        <v>12061646</v>
+        <v>28435293</v>
       </c>
       <c r="H127" s="9">
-        <v>28435293</v>
+        <v>51563867</v>
       </c>
       <c r="I127" s="9">
-        <v>51563867</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116900190</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
       <c r="E128" s="15">
-        <v>0</v>
+        <v>37727888</v>
       </c>
       <c r="F128" s="15">
-        <v>37727888</v>
+        <v>39421937</v>
       </c>
       <c r="G128" s="15">
-        <v>39421937</v>
+        <v>86297763</v>
       </c>
       <c r="H128" s="15">
-        <v>86297763</v>
+        <v>136170582</v>
       </c>
       <c r="I128" s="15">
-        <v>136170582</v>
+        <v>261845270</v>
       </c>
     </row>
   </sheetData>
